--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433392.7344907592</v>
+        <v>433702.1317678574</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162199</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437299</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6445999.858355872</v>
+        <v>6276623.132449416</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.1705083979513</v>
+        <v>225.5567228985696</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385439</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.0911530820968</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>38.65206358369084</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.120027753936</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148.6229690629698</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>19.89843046228975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>42.43741174507632</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>99.41718537222953</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.338580986754437</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>256.8454395874278</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>393.9470907639069</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>11.89439304893099</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -1813,16 +1815,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>19.89843046228975</v>
       </c>
       <c r="X17" t="n">
-        <v>298.0721989747363</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.34896487500716</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>343.1629119743983</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>93.72417435355347</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.3199979017279</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>70.11854311890876</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>158.6465203160514</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>126.5427015793254</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2485,10 +2487,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>106.9706214097025</v>
+        <v>133.2517109508512</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2561,16 +2563,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>84.7653348515814</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2718,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2728,10 +2730,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>212.58658569201</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2792,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>100.0791888769557</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.3894566163197</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2950,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>148.0772376304396</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2968,7 +2970,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>142.5359303380068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>234.8513260367619</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.6425927105685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>87.08964901531073</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3269,16 +3271,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>19.89843046228963</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.4208820523424</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>57.21175205823708</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3442,7 +3444,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>397.7294175190405</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>156.7380208505097</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>44.21277235333763</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>169.9049044304624</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3724,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>392.420882052342</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>218.2556188417214</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.9481501102976</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3964,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>90.98315041848335</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4040,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.7121190521751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>98.00768840192497</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
@@ -4071,10 +4073,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
@@ -4122,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884549</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>34.54715513092122</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.766126021982</v>
+        <v>679.7247499512507</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.766126021982</v>
+        <v>269.6001592645208</v>
       </c>
       <c r="D2" t="n">
-        <v>1198.766126021982</v>
+        <v>269.6001592645208</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.432279155364</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M2" t="n">
-        <v>176.0078249962696</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.987305686471</v>
+        <v>1089.94592961574</v>
       </c>
       <c r="X2" t="n">
-        <v>1608.987305686471</v>
+        <v>1089.94592961574</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.987305686471</v>
+        <v>1089.94592961574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
         <v>586.6008562650821</v>
@@ -4401,31 +4403,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O3" t="n">
-        <v>1724.070068790184</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4477,19 +4479,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1246.342524902554</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>1246.342524902554</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1691.724233752687</v>
+        <v>849.1499363715408</v>
       </c>
       <c r="C5" t="n">
-        <v>1281.599643065957</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D5" t="n">
-        <v>877.1357131590178</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E5" t="n">
-        <v>462.7954976759145</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
         <v>2047.697635790537</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1691.724233752687</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1691.724233752687</v>
+        <v>1259.37111603603</v>
       </c>
       <c r="W5" t="n">
-        <v>1691.724233752687</v>
+        <v>1259.37111603603</v>
       </c>
       <c r="X5" t="n">
-        <v>1691.724233752687</v>
+        <v>1259.37111603603</v>
       </c>
       <c r="Y5" t="n">
-        <v>1691.724233752687</v>
+        <v>1259.37111603603</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>675.1644281008383</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767164</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>843.6595175967811</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>1427.188295040344</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1588.292515641866</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C8" t="n">
-        <v>1178.167924955136</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D8" t="n">
-        <v>773.7039950481965</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E8" t="n">
-        <v>773.7039950481965</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L8" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N8" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4838,16 +4840,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.416726816583</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.416726816583</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.416726816583</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>1192.007362767163</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767163</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767163</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767163</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.63115809937611</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4993,19 +4995,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1288.365834796576</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.480089736098</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>735.4104252449724</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>497.0665631046558</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.3308644934205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1687.317608428192</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.896209062304</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D11" t="n">
-        <v>1182.432279155364</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E11" t="n">
-        <v>1182.432279155364</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F11" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L11" t="n">
-        <v>176.0078249962696</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M11" t="n">
-        <v>692.8507596625949</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N11" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5081,10 +5083,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y11" t="n">
-        <v>1687.317608428192</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>81.91922121582746</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>537.7254774811262</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>1054.568412147451</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N12" t="n">
-        <v>1054.568412147451</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.598203386633</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.800055932758</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="V13" t="n">
-        <v>783.9143108722797</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="W13" t="n">
-        <v>504.844646381154</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X13" t="n">
-        <v>266.5007842408373</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1265.081890330439</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C14" t="n">
-        <v>854.9572996437093</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D14" t="n">
-        <v>450.4933697367699</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>450.4933697367699</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
-        <v>733.4074053521598</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O14" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5318,10 +5320,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>2076.239743046839</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1675.303069994929</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L15" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M15" t="n">
-        <v>690.384199457534</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N15" t="n">
-        <v>690.384199457534</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O15" t="n">
-        <v>1192.007362767163</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P15" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E16" t="n">
         <v>639.6001036836846</v>
@@ -5425,19 +5427,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H16" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5461,25 +5463,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1485.891263925851</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V16" t="n">
-        <v>1485.891263925851</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="W16" t="n">
-        <v>1485.891263925851</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="X16" t="n">
-        <v>1485.891263925851</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>639.6001036836846</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>439.0253456848109</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C17" t="n">
-        <v>439.0253456848109</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D17" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E17" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F17" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
-        <v>1209.69369432892</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>740.1083749522213</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X17" t="n">
-        <v>439.0253456848109</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y17" t="n">
-        <v>439.0253456848109</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>81.91922121582792</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>537.7254774811266</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>1054.568412147452</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M18" t="n">
-        <v>1571.411346813777</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N18" t="n">
-        <v>2088.254281480102</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C19" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D19" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E19" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F19" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G19" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1384.772214130362</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U19" t="n">
-        <v>1101.974066676486</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V19" t="n">
-        <v>1101.974066676486</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W19" t="n">
-        <v>1101.974066676486</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.974066676486</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y19" t="n">
-        <v>1101.974066676486</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2111.00538110944</v>
+        <v>474.7460523270726</v>
       </c>
       <c r="C20" t="n">
-        <v>1700.88079042271</v>
+        <v>474.7460523270726</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.41686051577</v>
+        <v>474.7460523270726</v>
       </c>
       <c r="E20" t="n">
-        <v>882.0766450326671</v>
+        <v>474.7460523270726</v>
       </c>
       <c r="F20" t="n">
-        <v>461.0462329863546</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>699.7525662591225</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1347.187183639058</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>1994.621801018994</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V20" t="n">
-        <v>2615.897443959337</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W20" t="n">
-        <v>2615.897443959337</v>
+        <v>875.3894501581201</v>
       </c>
       <c r="X20" t="n">
-        <v>2521.226560773929</v>
+        <v>474.7460523270726</v>
       </c>
       <c r="Y20" t="n">
-        <v>2521.226560773929</v>
+        <v>474.7460523270726</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>156.503292589879</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M21" t="n">
-        <v>803.9379099698149</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N21" t="n">
-        <v>1451.372527349751</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>2098.807144729687</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1257.59191977677</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="C22" t="n">
-        <v>1086.498547338487</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="D22" t="n">
-        <v>1086.498547338487</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>1086.498547338487</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>1086.498547338487</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>1086.498547338487</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H22" t="n">
-        <v>1086.498547338487</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>1086.498547338487</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>1100.581096743697</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>1255.133424465935</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
-        <v>1515.030524745996</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1804.294581186489</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>2085.13336358074</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>2344.693973907214</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.369414156826</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2615.897443959337</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2615.897443959337</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>2429.505675839247</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>2429.505675839247</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>2429.505675839247</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V22" t="n">
-        <v>2155.619930778769</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W22" t="n">
-        <v>1876.550266287643</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="X22" t="n">
-        <v>1638.206404147327</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="Y22" t="n">
-        <v>1413.470705536091</v>
+        <v>871.3377300465861</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.126100861739</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="C23" t="n">
-        <v>2043.001510175009</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="D23" t="n">
-        <v>1638.53758026807</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E23" t="n">
-        <v>1224.197364784966</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F23" t="n">
-        <v>803.1669527386539</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>4176.508562960204</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U23" t="n">
-        <v>4176.508562960204</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>4048.687652274017</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W23" t="n">
-        <v>3664.927351409186</v>
+        <v>1089.94592961574</v>
       </c>
       <c r="X23" t="n">
-        <v>3264.283953578138</v>
+        <v>689.3025317846927</v>
       </c>
       <c r="Y23" t="n">
-        <v>2863.347280526228</v>
+        <v>288.3658587327828</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>276.3430288218373</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>732.149285087136</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L24" t="n">
-        <v>732.149285087136</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M24" t="n">
-        <v>732.149285087136</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N24" t="n">
-        <v>1218.469009937191</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O24" t="n">
-        <v>1218.469009937191</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P24" t="n">
-        <v>1780.174902425721</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3246.659631323482</v>
+        <v>835.1119967802553</v>
       </c>
       <c r="C25" t="n">
-        <v>3075.566258885199</v>
+        <v>664.0186243419718</v>
       </c>
       <c r="D25" t="n">
-        <v>2916.071614208109</v>
+        <v>504.5239796648818</v>
       </c>
       <c r="E25" t="n">
-        <v>2755.160799076428</v>
+        <v>343.6131645332013</v>
       </c>
       <c r="F25" t="n">
-        <v>2647.109666339355</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G25" t="n">
-        <v>2647.109666339355</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H25" t="n">
-        <v>2647.109666339355</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>2647.109666339355</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>2661.192215744566</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>2815.744543466803</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>3075.641643746864</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>3364.905700187357</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>3645.744482581607</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>3905.305092908081</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>4110.980533157694</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>4176.508562960204</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>4176.508562960204</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>4176.508562960204</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T25" t="n">
-        <v>4176.508562960204</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U25" t="n">
-        <v>4176.508562960204</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V25" t="n">
-        <v>4176.508562960204</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W25" t="n">
-        <v>3897.438898469079</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X25" t="n">
-        <v>3659.095036328762</v>
+        <v>1247.547401785535</v>
       </c>
       <c r="Y25" t="n">
-        <v>3434.359337717527</v>
+        <v>1022.8117031743</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>856.3536062232714</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C26" t="n">
-        <v>446.2290155365415</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D26" t="n">
-        <v>41.76508562960205</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960205</v>
+        <v>859.3255454033292</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>438.2951333570168</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M26" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O26" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V26" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>1667.511458939671</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y26" t="n">
-        <v>1266.574785887761</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6299,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L27" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M27" t="n">
+        <v>558.6080202959272</v>
+      </c>
+      <c r="N27" t="n">
         <v>1054.568412147451</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1571.411346813777</v>
       </c>
       <c r="O27" t="n">
         <v>1571.411346813777</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.6507901634313</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C28" t="n">
-        <v>534.5574177251478</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D28" t="n">
-        <v>534.5574177251478</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E28" t="n">
-        <v>373.6466025934674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F28" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6412,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1356.430057309028</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1356.430057309028</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>1356.430057309028</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W28" t="n">
-        <v>1356.430057309028</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X28" t="n">
-        <v>1118.086195168711</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.3504965574757</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.8551754043048</v>
+        <v>741.1719557267559</v>
       </c>
       <c r="C29" t="n">
-        <v>142.8551754043048</v>
+        <v>331.047365040026</v>
       </c>
       <c r="D29" t="n">
-        <v>142.8551754043048</v>
+        <v>331.047365040026</v>
       </c>
       <c r="E29" t="n">
-        <v>142.8551754043048</v>
+        <v>331.047365040026</v>
       </c>
       <c r="F29" t="n">
-        <v>142.8551754043048</v>
+        <v>331.047365040026</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>331.047365040026</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M29" t="n">
-        <v>1530.854701124212</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.416726816583</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.656425951752</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X29" t="n">
-        <v>954.0130281207041</v>
+        <v>1552.329808443155</v>
       </c>
       <c r="Y29" t="n">
-        <v>553.0763550687942</v>
+        <v>1151.393135391245</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N30" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O30" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P30" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
         <v>2058.694762117472</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1531.843189264715</v>
+        <v>1109.57853079593</v>
       </c>
       <c r="C31" t="n">
-        <v>1360.749816826431</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D31" t="n">
-        <v>1201.255172149341</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>1040.344357017661</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>875.7132311282519</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>708.4628400537953</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V31" t="n">
-        <v>2088.254281480102</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W31" t="n">
-        <v>2088.254281480102</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X31" t="n">
-        <v>1944.278594269994</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y31" t="n">
-        <v>1719.542895658759</v>
+        <v>1297.278237189974</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1277.384018269584</v>
+        <v>1080.712837245045</v>
       </c>
       <c r="C32" t="n">
-        <v>867.259427582854</v>
+        <v>1080.712837245045</v>
       </c>
       <c r="D32" t="n">
-        <v>462.7954976759145</v>
+        <v>676.2489073381057</v>
       </c>
       <c r="E32" t="n">
-        <v>462.7954976759145</v>
+        <v>676.2489073381057</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>676.2489073381057</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L32" t="n">
-        <v>1075.450954962253</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N32" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O32" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6731,19 +6733,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1080.712837245045</v>
       </c>
       <c r="Y32" t="n">
-        <v>1687.605197934073</v>
+        <v>1080.712837245045</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960205</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962253</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1404.154390030132</v>
+        <v>729.9487572975349</v>
       </c>
       <c r="C34" t="n">
-        <v>1404.154390030132</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D34" t="n">
-        <v>1244.659745353042</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E34" t="n">
-        <v>1156.690402913334</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F34" t="n">
-        <v>992.0592770239257</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G34" t="n">
-        <v>824.8088859494691</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H34" t="n">
-        <v>675.2014307549257</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M34" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P34" t="n">
         <v>2022.726251677591</v>
@@ -6880,28 +6882,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R34" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S34" t="n">
-        <v>1816.589795035412</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T34" t="n">
-        <v>1816.589795035412</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.589795035412</v>
+        <v>1933.683433994735</v>
       </c>
       <c r="V34" t="n">
-        <v>1816.589795035412</v>
+        <v>1659.797688934257</v>
       </c>
       <c r="W34" t="n">
-        <v>1816.589795035412</v>
+        <v>1380.728024443131</v>
       </c>
       <c r="X34" t="n">
-        <v>1816.589795035412</v>
+        <v>1142.384162302815</v>
       </c>
       <c r="Y34" t="n">
-        <v>1591.854096424177</v>
+        <v>917.6484636915793</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1281.648372469812</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C35" t="n">
-        <v>871.5237817830823</v>
+        <v>466.328440245925</v>
       </c>
       <c r="D35" t="n">
-        <v>871.5237817830823</v>
+        <v>61.8645103389855</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>61.8645103389855</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>61.8645103389855</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N35" t="n">
-        <v>1250.250340018485</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O35" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P35" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6977,10 +6979,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y35" t="n">
-        <v>1691.869552134302</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="N36" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O36" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1131.098935930739</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C37" t="n">
-        <v>960.0055634924552</v>
+        <v>843.6595175967811</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7129,16 +7131,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W37" t="n">
-        <v>1571.163982250452</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X37" t="n">
-        <v>1543.534340936018</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1318.798642324783</v>
+        <v>1072.542538578738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1285.863997266186</v>
+        <v>286.4380814948619</v>
       </c>
       <c r="C38" t="n">
-        <v>1285.863997266186</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="D38" t="n">
-        <v>1285.863997266186</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E38" t="n">
-        <v>871.5237817830823</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N38" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7205,19 +7207,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.610883649055</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="Y38" t="n">
-        <v>1687.610883649055</v>
+        <v>696.6592611593513</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147451</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N39" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O39" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q39" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.5178240813579</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="C40" t="n">
-        <v>86.42445164307441</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="D40" t="n">
-        <v>86.42445164307441</v>
+        <v>319.0219466569564</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S40" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T40" t="n">
-        <v>1331.615243227154</v>
+        <v>1314.270148339526</v>
       </c>
       <c r="U40" t="n">
-        <v>1048.817095773278</v>
+        <v>1031.47200088565</v>
       </c>
       <c r="V40" t="n">
-        <v>774.9313507128002</v>
+        <v>757.586255825172</v>
       </c>
       <c r="W40" t="n">
-        <v>495.8616862216745</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="X40" t="n">
-        <v>257.5178240813579</v>
+        <v>478.5165913340464</v>
       </c>
       <c r="Y40" t="n">
-        <v>257.5178240813579</v>
+        <v>478.5165913340464</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1097.595934211262</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C41" t="n">
-        <v>1097.595934211262</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D41" t="n">
-        <v>1097.595934211262</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E41" t="n">
-        <v>683.2557187281584</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F41" t="n">
-        <v>262.225306681846</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L41" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>558.6080202959273</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7442,19 +7444,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y41" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7484,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
         <v>1738.409816796118</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.76508562960205</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C43" t="n">
-        <v>41.76508562960205</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7597,22 +7599,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U43" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V43" t="n">
-        <v>774.9313507128002</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W43" t="n">
-        <v>495.8616862216745</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X43" t="n">
-        <v>257.5178240813579</v>
+        <v>779.8647105585317</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.76508562960205</v>
+        <v>555.1290119472964</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.5639850629442</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C44" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D44" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E44" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F44" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G44" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>117.5639850629442</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>361.3007174531585</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L44" t="n">
-        <v>361.3007174531585</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M44" t="n">
-        <v>747.5519694058733</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N44" t="n">
-        <v>1133.803221358588</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O44" t="n">
-        <v>1133.803221358588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1303.550627260378</v>
+        <v>1996.35210934022</v>
       </c>
       <c r="V44" t="n">
-        <v>953.7130725968584</v>
+        <v>1646.5145546767</v>
       </c>
       <c r="W44" t="n">
-        <v>569.952771732027</v>
+        <v>1262.754253811869</v>
       </c>
       <c r="X44" t="n">
-        <v>175.859054812616</v>
+        <v>862.1108559808214</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.5639850629442</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>600.6477671943499</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>466.6526959432956</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>367.6550308908461</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>247.1622148831741</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>138.2023350656787</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>224.0250799426506</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>224.0250799426506</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M45" t="n">
-        <v>224.0250799426506</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N45" t="n">
-        <v>438.2641504114549</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O45" t="n">
-        <v>824.5154023641696</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>1210.766654316884</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>600.6477671943499</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.5997460790038</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="C46" t="n">
-        <v>766.5997460790038</v>
+        <v>564.3170528066889</v>
       </c>
       <c r="D46" t="n">
-        <v>766.5997460790038</v>
+        <v>404.822408129599</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>243.9115929979184</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V46" t="n">
-        <v>766.5997460790038</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W46" t="n">
-        <v>766.5997460790038</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X46" t="n">
-        <v>766.5997460790038</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="Y46" t="n">
-        <v>766.5997460790038</v>
+        <v>735.4104252449724</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>200.7852390175286</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>68.74422894819196</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8216,22 +8218,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>296.4405581451824</v>
+        <v>296.4405581451822</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8295,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>500.8626362276487</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>362.3241544056885</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>296.1630732760184</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>63.89502594283636</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8693,25 +8695,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>231.0841246958424</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>91.92897171537922</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8781,13 +8783,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>97.25235142021801</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>537.3610023606261</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>329.5449236222965</v>
       </c>
       <c r="O15" t="n">
-        <v>564.4415429491204</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9164,28 +9166,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>91.92897171537967</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>68.26591628750379</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,16 +9406,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>749.459759052679</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>746.8866517464535</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>720.7409301109776</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9422,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>161.3522447307403</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9638,25 +9640,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>593.8823835359368</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9717,25 +9719,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>362.0354133794548</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>544.4254386968354</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>269.754811036119</v>
+        <v>296.4405581451822</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>425.4271248393441</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10112,19 +10114,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>553.2940084590249</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10133,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>332.4660540393959</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428702</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10349,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>553.6531472828633</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>555.229727782121</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>269.4773261669552</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>96.67425672622839</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10826,16 +10828,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>553.1935596277625</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
@@ -10844,7 +10846,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>173.8482690683347</v>
       </c>
       <c r="M39" t="n">
-        <v>98.1240166537967</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533567</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>553.6531472828635</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>265.359579940715</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>201.8514806265821</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>165.8061104867393</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11376,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N45" t="n">
-        <v>269.5964948773907</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>394.0263049303209</v>
+        <v>184.6400904297027</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,7 +22609,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.73155624800719</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>215.8378232393941</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0.2191513629480824</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -22939,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>257.4959988048748</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23030,13 +23032,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23078,16 +23080,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>360.0242673938934</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>126.9450269688243</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,16 +23235,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>306.606159407633</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23321,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>390.2983828659825</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>23.12472639190929</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12.07625401595567</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>384.742570803806</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23719,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23747,10 +23749,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>360.0242673938934</v>
       </c>
       <c r="X17" t="n">
-        <v>98.56476487800069</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.47374445509679</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>73.657195951451</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>302.9127894991835</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.50271142837607</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>87.78115511141031</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>247.4724475517932</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>219.7964775375587</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.01419322081219</v>
+        <v>29.73310367966343</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -24424,7 +24426,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>319.8756664145147</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.0298339915499</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -24506,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>24.56666594105494</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -24664,7 +24666,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24692,10 +24694,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>304.5618123891404</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>21.40995578223948</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -24737,10 +24739,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.30520108346107</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>93.42449318090661</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>169.7896752293343</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2847136108223367</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>72.21205796505299</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>126.945026968824</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>384.7425708038065</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25217,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.506424269048352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>128.6109572718669</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.38955034880405</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>249.2853239293529</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,19 +25447,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25549,13 +25551,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>115.0889346270261</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25567,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>67.2483472026025</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>186.3853824243747</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25682,13 +25684,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>4.874559219806315</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25837,10 +25839,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25883,7 +25885,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>163.5067364046016</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2151872692157</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>17.72049780087652</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25959,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190884</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>128.4376594995934</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>542813.8376407744</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542813.8376407743</v>
+        <v>542813.8376407744</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>542813.8376407743</v>
+        <v>542813.8376407744</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542813.8376407744</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600963.5912931078</v>
+        <v>542813.8376407746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772953.2209712227</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542813.8376407743</v>
+        <v>542813.8376407746</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542813.8376407746</v>
+        <v>542813.8376407744</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542813.8376407744</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453689.8433495096</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="D2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="E2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="F2" t="n">
         <v>161720.1620581894</v>
@@ -26329,31 +26331,31 @@
         <v>161720.1620581895</v>
       </c>
       <c r="H2" t="n">
-        <v>179038.3952328992</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="I2" t="n">
-        <v>230260.5642588556</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="J2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="K2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="L2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="M2" t="n">
         <v>161720.1620581895</v>
       </c>
       <c r="N2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="O2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="P2" t="n">
-        <v>135177.1413632827</v>
+        <v>161720.1620581894</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="D4" t="n">
+        <v>39061.3549800394</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39061.3549800394</v>
+      </c>
+      <c r="F4" t="n">
         <v>39061.35498003941</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>39061.3549800394</v>
+      </c>
+      <c r="H4" t="n">
         <v>39061.35498003941</v>
       </c>
-      <c r="F4" t="n">
-        <v>39061.35498003942</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>39061.35498003941</v>
       </c>
-      <c r="H4" t="n">
-        <v>43281.33413518692</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55762.77397898338</v>
-      </c>
       <c r="J4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="K4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="L4" t="n">
         <v>39061.35498003941</v>
@@ -26457,7 +26459,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="P4" t="n">
-        <v>32593.54773220027</v>
+        <v>39061.35498003941</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-117665.7678934616</v>
       </c>
       <c r="C6" t="n">
-        <v>57289.74199965249</v>
+        <v>57289.74199965244</v>
       </c>
       <c r="D6" t="n">
-        <v>57289.74199965246</v>
+        <v>57289.74199965247</v>
       </c>
       <c r="E6" t="n">
-        <v>90917.34199965249</v>
+        <v>90917.34199965245</v>
       </c>
       <c r="F6" t="n">
-        <v>90917.34199965243</v>
+        <v>90917.34199965242</v>
       </c>
       <c r="G6" t="n">
-        <v>90917.34199965252</v>
+        <v>90917.3419996525</v>
       </c>
       <c r="H6" t="n">
-        <v>60404.70144319037</v>
+        <v>90917.34199965248</v>
       </c>
       <c r="I6" t="n">
-        <v>7265.042778919655</v>
+        <v>90917.34199965245</v>
       </c>
       <c r="J6" t="n">
-        <v>90917.34199965255</v>
+        <v>-45677.45880624247</v>
       </c>
       <c r="K6" t="n">
-        <v>90917.34199965249</v>
+        <v>90917.34199965248</v>
       </c>
       <c r="L6" t="n">
-        <v>90917.34199965252</v>
+        <v>90917.34199965248</v>
       </c>
       <c r="M6" t="n">
-        <v>90917.34199965249</v>
+        <v>90917.3419996525</v>
       </c>
       <c r="N6" t="n">
-        <v>90917.34199965249</v>
+        <v>90917.34199965242</v>
       </c>
       <c r="O6" t="n">
-        <v>90917.34199965249</v>
+        <v>90917.34199965248</v>
       </c>
       <c r="P6" t="n">
-        <v>78862.30462226924</v>
+        <v>90917.34199965242</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M2" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34936,22 +34938,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>203.2507825193993</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.0368534430334</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>135.5987266329975</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.55973291537921</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="O15" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35884,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>40.55973291537967</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>627.5511544851945</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>105.2377209198912</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>491.2320453030854</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>176.5650354103359</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>276.3515302285468</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793172</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>176.5650354103359</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>40.55973291537934</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="M39" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>209.2450561298659</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>147.5918456237784</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>76.66972081352215</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N45" t="n">
-        <v>216.4031014836407</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433702.1317678574</v>
+        <v>427972.7359366309</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091065</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>225.5567228985696</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>58.54486518814956</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>42.53944252213982</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>286.3894566163201</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.120027753936</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>129.1752199258839</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>142.5359303380066</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>19.89843046228975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>352.638704519378</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>234.6962748014239</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.99503997261061</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>6.338580986754437</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>148.7826279822715</v>
       </c>
       <c r="U13" t="n">
-        <v>256.8454395874278</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>393.9470907639069</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.78992902052222</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>27.77250173713422</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1824,13 +1824,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>136.1769805884545</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>170.9324381922167</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>19.89843046228975</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>225.55672289857</v>
       </c>
       <c r="F20" t="n">
-        <v>343.1629119743983</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2140,13 +2140,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>70.11854311890876</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>227.0672929610288</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.6465203160514</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>241.4133670011819</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.2517109508512</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>84.7653348515814</v>
+        <v>346.6630339611676</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.3894566163197</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>170.0104893210404</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.0772376304396</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>122.9106674587841</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>234.8513260367619</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0251390105131</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>151.3443674339372</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>19.89843046228963</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.21175205823708</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>156.7380208505097</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>198.3987443462411</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>169.9049044304624</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>392.420882052342</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>241.4133670011819</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.9481501102976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.407212797182654</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>90.98315041848335</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.54715513092122</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>679.7247499512507</v>
+        <v>1329.830049169152</v>
       </c>
       <c r="C2" t="n">
-        <v>269.6001592645208</v>
+        <v>919.7054584824222</v>
       </c>
       <c r="D2" t="n">
-        <v>269.6001592645208</v>
+        <v>515.2415285754827</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960203</v>
+        <v>100.9013130923794</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>1089.94592961574</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X2" t="n">
-        <v>1089.94592961574</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1089.94592961574</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>1075.450954962252</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796118</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4515,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>84.73421949034935</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>849.1499363715408</v>
+        <v>741.1719557267563</v>
       </c>
       <c r="C5" t="n">
-        <v>439.0253456848109</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="D5" t="n">
-        <v>439.0253456848109</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="E5" t="n">
-        <v>439.0253456848109</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="F5" t="n">
-        <v>439.0253456848109</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636815</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.37111603603</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1259.37111603603</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>1259.37111603603</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1259.37111603603</v>
+        <v>1151.393135391246</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811263</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1014.752890035065</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="C7" t="n">
-        <v>843.6595175967811</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="D7" t="n">
-        <v>684.1648729196911</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="E7" t="n">
-        <v>523.2540577880106</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X7" t="n">
-        <v>1427.188295040344</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y7" t="n">
-        <v>1202.452596429109</v>
+        <v>172.2451057567575</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>856.3536062232714</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960203</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960203</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1846.479361096332</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.154856770718</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>1667.511458939671</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1266.574785887761</v>
+        <v>1596.772494638468</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="C10" t="n">
         <v>960.0055634924552</v>
@@ -4953,19 +4953,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1147.7052698865</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1147.7052698865</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>1147.7052698865</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>1147.7052698865</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>1147.7052698865</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>1147.7052698865</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1270.693821706375</v>
+        <v>893.3361278988716</v>
       </c>
       <c r="C11" t="n">
-        <v>860.5692310196448</v>
+        <v>893.3361278988716</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1053011127053</v>
+        <v>488.8721979919321</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960203</v>
+        <v>488.8721979919321</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>488.8721979919321</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>80.14391388476429</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>80.14391388476429</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>537.7254774811263</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1054.568412147451</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
         <v>2088.254281480102</v>
@@ -5080,13 +5080,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X11" t="n">
-        <v>2081.851674422774</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y11" t="n">
-        <v>1680.915001370864</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="C13" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1234.486731319987</v>
       </c>
       <c r="U13" t="n">
-        <v>800.5109188153651</v>
+        <v>1234.486731319987</v>
       </c>
       <c r="V13" t="n">
-        <v>800.5109188153651</v>
+        <v>960.6009862595088</v>
       </c>
       <c r="W13" t="n">
-        <v>800.5109188153651</v>
+        <v>960.6009862595088</v>
       </c>
       <c r="X13" t="n">
-        <v>800.5109188153651</v>
+        <v>722.2571241191922</v>
       </c>
       <c r="Y13" t="n">
-        <v>800.5109188153651</v>
+        <v>722.2571241191922</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.254281480102</v>
+        <v>885.0481370381763</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.327927173125</v>
+        <v>885.0481370381763</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>480.5842071312368</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>480.5842071312368</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>480.5842071312368</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>71.85592302406894</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>71.85592302406894</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N14" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
         <v>2047.697635790537</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1295.269316702666</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1295.269316702666</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>234.5779431922353</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M15" t="n">
-        <v>751.4208778585604</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N15" t="n">
-        <v>1025.008892784821</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
         <v>2058.694762117472</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1543.110950192741</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1303.562211169443</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1020.764063715567</v>
       </c>
       <c r="V16" t="n">
-        <v>639.6001036836846</v>
+        <v>746.8783186550887</v>
       </c>
       <c r="W16" t="n">
-        <v>639.6001036836846</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X16" t="n">
-        <v>639.6001036836846</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y16" t="n">
-        <v>639.6001036836846</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>856.3536062232714</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C17" t="n">
-        <v>446.2290155365415</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960203</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960203</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q17" t="n">
         <v>2088.254281480102</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1558.107693744075</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1558.107693744075</v>
       </c>
       <c r="W17" t="n">
-        <v>2068.154856770718</v>
+        <v>1174.347392879244</v>
       </c>
       <c r="X17" t="n">
-        <v>1667.511458939671</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y17" t="n">
-        <v>1266.574785887761</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.008892784821</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P18" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5703,22 +5703,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.598203386633</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.800055932758</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>783.9143108722797</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>504.844646381154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>266.5007842408373</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>474.7460523270726</v>
+        <v>679.7247499512512</v>
       </c>
       <c r="C20" t="n">
-        <v>474.7460523270726</v>
+        <v>269.6001592645213</v>
       </c>
       <c r="D20" t="n">
-        <v>474.7460523270726</v>
+        <v>269.6001592645213</v>
       </c>
       <c r="E20" t="n">
-        <v>474.7460523270726</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F20" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>1259.149751022951</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W20" t="n">
-        <v>875.3894501581201</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X20" t="n">
-        <v>474.7460523270726</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y20" t="n">
-        <v>474.7460523270726</v>
+        <v>1089.945929615741</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N21" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>871.3377300465861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>871.3377300465861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5937,25 +5937,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1145.223475107064</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>871.3377300465861</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>871.3377300465861</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>871.3377300465861</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y22" t="n">
-        <v>871.3377300465861</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C23" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D23" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E23" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F23" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G23" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N23" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O23" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V23" t="n">
-        <v>1473.706230480572</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W23" t="n">
-        <v>1089.94592961574</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X23" t="n">
-        <v>689.3025317846927</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.3658587327828</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K24" t="n">
-        <v>537.7254774811263</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L24" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M24" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O24" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.1119967802553</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>664.0186243419718</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>504.5239796648818</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>343.6131645332013</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6171,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>1247.547401785535</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.8117031743</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.129690793372</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D26" t="n">
-        <v>1273.665760886433</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="E26" t="n">
-        <v>859.3255454033292</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="F26" t="n">
-        <v>438.2951333570168</v>
+        <v>702.8382637707402</v>
       </c>
       <c r="G26" t="n">
         <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M26" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="N26" t="n">
-        <v>1846.479361096332</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O27" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>741.1719557267559</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="C29" t="n">
-        <v>331.047365040026</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D29" t="n">
-        <v>331.047365040026</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E29" t="n">
-        <v>331.047365040026</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F29" t="n">
-        <v>331.047365040026</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G29" t="n">
-        <v>331.047365040026</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959272</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M29" t="n">
-        <v>1054.568412147451</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q29" t="n">
         <v>2088.254281480102</v>
@@ -6496,19 +6496,19 @@
         <v>1952.973206274203</v>
       </c>
       <c r="U29" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V29" t="n">
-        <v>1952.973206274203</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W29" t="n">
-        <v>1952.973206274203</v>
+        <v>1174.347392879244</v>
       </c>
       <c r="X29" t="n">
-        <v>1552.329808443155</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="Y29" t="n">
-        <v>1151.393135391245</v>
+        <v>773.7039950481965</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K30" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L30" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M30" t="n">
-        <v>1207.227134123859</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N30" t="n">
-        <v>1708.850297433488</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O30" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1109.57853079593</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6651,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1297.278237189974</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1297.278237189974</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.278237189974</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1080.712837245045</v>
+        <v>586.9476870282217</v>
       </c>
       <c r="C32" t="n">
-        <v>1080.712837245045</v>
+        <v>586.9476870282217</v>
       </c>
       <c r="D32" t="n">
-        <v>676.2489073381057</v>
+        <v>586.9476870282217</v>
       </c>
       <c r="E32" t="n">
-        <v>676.2489073381057</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F32" t="n">
-        <v>676.2489073381057</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G32" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M32" t="n">
-        <v>558.6080202959272</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N32" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O32" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>1831.193789739612</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V32" t="n">
-        <v>1481.356235076093</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W32" t="n">
-        <v>1481.356235076093</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X32" t="n">
-        <v>1080.712837245045</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="Y32" t="n">
-        <v>1080.712837245045</v>
+        <v>997.1688666927112</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>751.4208778585604</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M33" t="n">
-        <v>751.4208778585604</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N33" t="n">
-        <v>751.4208778585604</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O33" t="n">
-        <v>1268.263812524885</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.9487572975349</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1933.683433994735</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1659.797688934257</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1380.728024443131</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>1142.384162302815</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>917.6484636915793</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.4530309326549</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="C35" t="n">
-        <v>466.328440245925</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D35" t="n">
-        <v>61.8645103389855</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E35" t="n">
-        <v>61.8645103389855</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F35" t="n">
-        <v>61.8645103389855</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959272</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M35" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N35" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O35" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6970,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.610883649054</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.674210597144</v>
+        <v>1430.257116687702</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7254774811263</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M36" t="n">
-        <v>537.7254774811263</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N36" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O36" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>843.6595175967811</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>684.1648729196911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>1297.278237189974</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>1297.278237189974</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1072.542538578738</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>286.4380814948619</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="C38" t="n">
-        <v>128.1168483125289</v>
+        <v>553.0763550687942</v>
       </c>
       <c r="D38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7207,19 +7207,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1481.356235076093</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W38" t="n">
-        <v>1097.595934211261</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X38" t="n">
-        <v>1097.595934211261</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y38" t="n">
-        <v>696.6592611593513</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>158.3214934345128</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>675.164428100838</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N39" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>478.5165913340464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>478.5165913340464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>319.0219466569564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1314.270148339526</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1031.47200088565</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>757.586255825172</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>478.5165913340464</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>478.5165913340464</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>478.5165913340464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.033101815612</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.908511128882</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.908511128882</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
         <v>1329.636426430007</v>
@@ -7438,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>704.723947463468</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M42" t="n">
-        <v>704.723947463468</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129793</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>372.3531027449755</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7599,22 +7599,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1018.208572698848</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>779.8647105585317</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>555.1290119472964</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>451.8896763163319</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960203</v>
+        <v>867.2651132978355</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960203</v>
+        <v>867.2651132978355</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960203</v>
+        <v>452.9248978147322</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960203</v>
+        <v>452.9248978147322</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960203</v>
+        <v>44.19661370756432</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>497.1688317915614</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O44" t="n">
         <v>2047.697635790537</v>
@@ -7681,19 +7681,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1996.35210934022</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V44" t="n">
-        <v>1646.5145546767</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W44" t="n">
-        <v>1262.754253811869</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X44" t="n">
-        <v>862.1108559808214</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y44" t="n">
-        <v>862.1108559808214</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
@@ -7733,16 +7733,16 @@
         <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.007362767163</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.007362767163</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767163</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P45" t="n">
         <v>1708.850297433488</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>735.4104252449724</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>564.3170528066889</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>404.822408129599</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>243.9115929979184</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7836,22 +7836,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1014.480089736098</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>735.4104252449724</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>735.4104252449724</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>735.4104252449724</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175286</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>296.4405581451822</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8239,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>362.3241544056885</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491203</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N8" t="n">
-        <v>296.1630732760184</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>63.89502594283636</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728292</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>596.4554908421622</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8768,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8783,16 +8783,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.25235142021801</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>552.9160747585985</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9008,25 +9008,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>329.5449236222965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9169,22 +9169,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>87.31214281472352</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>68.26591628750379</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N21" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>593.8823835359368</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K24" t="n">
-        <v>362.0354133794548</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>296.4405581451822</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>395.7562197346342</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>594.2603172363629</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>87.31214281472352</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>559.8834573428702</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>98.31121191537929</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>553.6531472828633</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10430,10 +10430,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,16 +10442,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>499.2964884458369</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>231.0841246958424</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>552.9160747585985</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>96.67425672622839</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>594.1598684051006</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>173.8482690683347</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>337.1293820533567</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>265.359579940715</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728292</v>
+        <v>499.2964884458365</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266448</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11381,10 +11381,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>564.2543476875378</v>
+        <v>564.2543476875377</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>184.6400904297027</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>358.2752427376997</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>143.2832668079641</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,22 +22755,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>118.251544649776</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2191513629480824</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>36.40266723782815</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23083,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>360.0242673938934</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.28860180201281</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23229,10 +23229,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>2.456976831641043</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -23244,10 +23244,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>47.49320508348696</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>390.2983828659825</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>88.37062365079342</v>
       </c>
       <c r="U13" t="n">
-        <v>23.12472639190929</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.07625401595567</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>55.69831603557535</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23560,7 +23560,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.7553487017546</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>134.9699070214187</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>83.55744863086829</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>360.0242673938934</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>184.6400904297022</v>
       </c>
       <c r="F20" t="n">
-        <v>73.657195951451</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -23989,7 +23989,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>87.78115511141031</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>8.89313055788466</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>247.4724475517932</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24223,10 +24223,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>155.5139393202089</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>29.73310367966343</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>319.8756664145147</v>
+        <v>57.97796730492848</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24691,13 +24691,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>21.40995578223948</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24736,19 +24736,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>209.9122085351427</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>21.30520108346107</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>287.2861458694881</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>169.7896752293343</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.945026968824</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>254.7746004339074</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>384.7425708038065</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25210,7 +25210,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.6109572718669</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>249.2853239293529</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>202.020546261629</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25408,10 +25408,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>67.2483472026025</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>17.77593127593025</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>163.2276342649142</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.874559219806315</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,10 +25839,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>305.3921996013765</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25921,13 +25921,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>163.5067364046016</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>128.4376594995934</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542813.8376407743</v>
+        <v>542813.8376407746</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>542813.8376407746</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542813.8376407746</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542813.8376407744</v>
+        <v>542813.8376407743</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542813.8376407743</v>
+        <v>542813.8376407746</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="C2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="D2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="E2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="F2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="G2" t="n">
-        <v>161720.1620581895</v>
+        <v>161720.1620581894</v>
       </c>
       <c r="H2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="I2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="J2" t="n">
         <v>161720.1620581894</v>
       </c>
       <c r="K2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="L2" t="n">
         <v>161720.1620581894</v>
@@ -26349,13 +26349,13 @@
         <v>161720.1620581895</v>
       </c>
       <c r="N2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="O2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
       <c r="P2" t="n">
-        <v>161720.1620581894</v>
+        <v>161720.1620581895</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="D4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="F4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="G4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="H4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="I4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="J4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="K4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="L4" t="n">
         <v>39061.35498003941</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117665.7678934616</v>
+        <v>-118343.2967528556</v>
       </c>
       <c r="C6" t="n">
-        <v>57289.74199965244</v>
+        <v>56612.21314025845</v>
       </c>
       <c r="D6" t="n">
-        <v>57289.74199965247</v>
+        <v>56612.21314025842</v>
       </c>
       <c r="E6" t="n">
-        <v>90917.34199965245</v>
+        <v>90239.81314025847</v>
       </c>
       <c r="F6" t="n">
-        <v>90917.34199965242</v>
+        <v>90239.81314025838</v>
       </c>
       <c r="G6" t="n">
-        <v>90917.3419996525</v>
+        <v>90239.81314025841</v>
       </c>
       <c r="H6" t="n">
-        <v>90917.34199965248</v>
+        <v>90239.81314025841</v>
       </c>
       <c r="I6" t="n">
-        <v>90917.34199965245</v>
+        <v>90239.81314025844</v>
       </c>
       <c r="J6" t="n">
-        <v>-45677.45880624247</v>
+        <v>-46354.98766563657</v>
       </c>
       <c r="K6" t="n">
-        <v>90917.34199965248</v>
+        <v>90239.81314025844</v>
       </c>
       <c r="L6" t="n">
-        <v>90917.34199965248</v>
+        <v>90239.81314025841</v>
       </c>
       <c r="M6" t="n">
-        <v>90917.3419996525</v>
+        <v>90239.81314025844</v>
       </c>
       <c r="N6" t="n">
-        <v>90917.34199965242</v>
+        <v>90239.81314025847</v>
       </c>
       <c r="O6" t="n">
-        <v>90917.34199965248</v>
+        <v>90239.81314025847</v>
       </c>
       <c r="P6" t="n">
-        <v>90917.34199965242</v>
+        <v>90239.81314025847</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>306.2096305948394</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N8" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.55973291537929</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>460.0037840019792</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35728,25 +35728,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>276.3515302285465</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35889,22 +35889,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N21" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>500.9700927793174</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K24" t="n">
-        <v>306.2096305948394</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>203.2507825193991</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>500.9700927793174</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
-        <v>506.6900639491203</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37150,10 +37150,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>445.0368534430332</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>40.55973291537934</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>500.9700927793174</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>117.7337452574857</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>244.2170912967374</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>209.2450561298659</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430327</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>506.6900639491204</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
